--- a/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.795922261098097</v>
+        <v>-5.602463283745123</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.073763962911457</v>
+        <v>-6.105251829080056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.757020515366257</v>
+        <v>-4.26441669657434</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.748475680683161</v>
+        <v>-2.481286301846752</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5297223580835509</v>
+        <v>-0.5312688432982454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4700829814824154</v>
+        <v>-0.4704336420899836</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3857960260933</v>
+        <v>-0.4264144881876122</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2728653247342648</v>
+        <v>-0.2584136206770443</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.127060599979031</v>
+        <v>-1.188197983842274</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.05818366347033</v>
+        <v>-0.8068013956702995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.32664448599215</v>
+        <v>1.23400260976503</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.368201345084234</v>
+        <v>2.484839881019186</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1412150647368653</v>
+        <v>-0.1491925185055162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1081166040351912</v>
+        <v>-0.06888164386818288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1931043996975332</v>
+        <v>0.1771876613139094</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3779883961824086</v>
+        <v>0.3909172263925627</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.166795928836693</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.073631299698717</v>
+        <v>1.073631299698719</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05381584889045196</v>
@@ -749,7 +749,7 @@
         <v>0.152343807464712</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1629686246190665</v>
+        <v>0.1629686246190667</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.331478082901543</v>
+        <v>-1.196978014630305</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.39255050540944</v>
+        <v>-1.593846758342726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.673998831331025</v>
+        <v>-0.568167950109731</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.6934608051682014</v>
+        <v>-0.5401063713592391</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1967937177780821</v>
+        <v>-0.1905599247107059</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1515289276476048</v>
+        <v>-0.1723370953899331</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08055426450409262</v>
+        <v>-0.07024967515499449</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09155877792290648</v>
+        <v>-0.0688265697313297</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.925932497029577</v>
+        <v>1.881435971829645</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.278614066172288</v>
+        <v>2.313260150915059</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.917860509769929</v>
+        <v>2.978301043472571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.668381690313953</v>
+        <v>2.778880999019458</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3909312870187324</v>
+        <v>0.3748848314821736</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2999713446285048</v>
+        <v>0.2920976692995133</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4394803410132423</v>
+        <v>0.4407910030138206</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4631579126254883</v>
+        <v>0.4919307601036694</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.221828260066078</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.160961981270024</v>
+        <v>-1.160961981270021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4565300970748531</v>
@@ -849,7 +849,7 @@
         <v>0.1697954049338824</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1361189517900748</v>
+        <v>-0.1361189517900745</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5751870439902186</v>
+        <v>-0.3114578176826046</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.416020012707674</v>
+        <v>-6.174069347417888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.177002288777396</v>
+        <v>-2.236613883089889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.366754934371835</v>
+        <v>-4.012454776712109</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.08163765495568691</v>
+        <v>-0.04525676209191295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5234304225131636</v>
+        <v>-0.5116846140100115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2444885850651315</v>
+        <v>-0.2467477419718278</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4158151839379802</v>
+        <v>-0.3905759943757541</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.461122110043431</v>
+        <v>6.448457430608857</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.892547689486421</v>
+        <v>1.92455327404576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.839144711341759</v>
+        <v>4.438311989299113</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.812847050793216</v>
+        <v>2.005226822680572</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.350286346237862</v>
+        <v>1.358978166247361</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2414964467533711</v>
+        <v>0.2995666356351606</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8641048986165101</v>
+        <v>0.8011705154034441</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2904666004066146</v>
+        <v>0.2978523182785269</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.5612034720947359</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5000220009109518</v>
+        <v>0.5000220009109504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.07187474980787366</v>
@@ -949,7 +949,7 @@
         <v>0.07258871858135364</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06937878851746121</v>
+        <v>0.069378788517461</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.711476365191145</v>
+        <v>-1.848516377337497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.417144143175114</v>
+        <v>-2.704204434589974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7667452423775092</v>
+        <v>-0.6840250680985437</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.7734817880561929</v>
+        <v>-0.7461461927519261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2259228513920367</v>
+        <v>-0.244501971801703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2416894499093381</v>
+        <v>-0.2508360463027334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.09065728631818727</v>
+        <v>-0.08099610358757504</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09702264829507293</v>
+        <v>-0.09041863735842272</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7862892395329533</v>
+        <v>0.733799006381563</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3427027725471503</v>
+        <v>0.2138610815479996</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.884812321062176</v>
+        <v>1.936697697337857</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.771515645471078</v>
+        <v>1.808721147022396</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1271168489783965</v>
+        <v>0.1170871431458041</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03923255238158647</v>
+        <v>0.02560225952591571</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2716706741043731</v>
+        <v>0.2803618327345643</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2741607696620112</v>
+        <v>0.286971336957808</v>
       </c>
     </row>
     <row r="16">
